--- a/data/trans_dic/P22$mutaSS-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.06717189792732213</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06539642048134633</v>
+        <v>0.06539642048134632</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05651393992121984</v>
+        <v>0.05815266299622882</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04611099910724323</v>
+        <v>0.04674231560428454</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05136137211814081</v>
+        <v>0.04742150515598914</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04205583029078438</v>
+        <v>0.04169515459733071</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0436772980603063</v>
+        <v>0.04366833505994324</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03877468375079873</v>
+        <v>0.04076125550114173</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03544427856092092</v>
+        <v>0.0353497948596492</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0542024732765071</v>
+        <v>0.05536736461136072</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05737162322359596</v>
+        <v>0.0580622661378152</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.05060859193833563</v>
+        <v>0.04882912238429325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05197684413671657</v>
+        <v>0.04922887558752912</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05226224197380273</v>
+        <v>0.05290146978039458</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1083598347889215</v>
+        <v>0.1068654937017125</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09542581736379675</v>
+        <v>0.09782223511818956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1039866945877072</v>
+        <v>0.1030150773384904</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08337215766751103</v>
+        <v>0.08184627610591896</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1037602503545962</v>
+        <v>0.103212758136211</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1032578419303598</v>
+        <v>0.1041271247110115</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09215215338972771</v>
+        <v>0.09098680119465059</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09103777092764181</v>
+        <v>0.08977599437706642</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09628572843350254</v>
+        <v>0.09521421848338103</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0880586997639539</v>
+        <v>0.08850706433462177</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09000863351473636</v>
+        <v>0.08943650855264169</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07927233914473565</v>
+        <v>0.08169959177907757</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08601108787832408</v>
+        <v>0.08143525493069888</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06366429141450067</v>
+        <v>0.06212160414482518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03611349879536741</v>
+        <v>0.03712708691759999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06425734842451473</v>
+        <v>0.06529431242791321</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03165639151564358</v>
+        <v>0.03175606936067923</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01786460937980662</v>
+        <v>0.01854174975991089</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005492667886341953</v>
+        <v>0.005825012034787092</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01418686673321939</v>
+        <v>0.01430362113127671</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06407688215630314</v>
+        <v>0.06285983358163096</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04642562466815998</v>
+        <v>0.04731730277312338</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02438062236739477</v>
+        <v>0.02394868626677735</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04433205161389406</v>
+        <v>0.04598361738746825</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1540973905473619</v>
+        <v>0.1552692122743205</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.126776413870389</v>
+        <v>0.1229950082917415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08506442370912105</v>
+        <v>0.08871275301894947</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1205950498528677</v>
+        <v>0.1218952684760543</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07845996454994034</v>
+        <v>0.07644229621350103</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06482880381473229</v>
+        <v>0.06434941108973986</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03464758009889111</v>
+        <v>0.03612588845016738</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03874186121995235</v>
+        <v>0.03855912124259599</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1032257218409747</v>
+        <v>0.1048124326315308</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08482225419968049</v>
+        <v>0.08924962616797041</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05242082020742705</v>
+        <v>0.05226660796093893</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.075566571025555</v>
+        <v>0.07829857545751279</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.006771018296320419</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.004281478120501483</v>
+        <v>0.004281478120501484</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006913631288106854</v>
+        <v>0.008045745289910736</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001671539024084235</v>
+        <v>0.001665465592295491</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001854897575894685</v>
+        <v>0.001837155169554163</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01208118160781085</v>
+        <v>0.01194821228701064</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01176266942038058</v>
+        <v>0.01144755739396882</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002531424901232236</v>
+        <v>0.002550874721083801</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01093409947429674</v>
+        <v>0.01074980552548702</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006611634684132048</v>
+        <v>0.006604064334023531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001512021244055886</v>
+        <v>0.001478986943432763</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.0009402533456142245</v>
+        <v>0.0009539887146608773</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02858452116025217</v>
+        <v>0.02839023068406792</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01564913694107027</v>
+        <v>0.01424866529678839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01824272464167397</v>
+        <v>0.01910917454872924</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01319119641186424</v>
+        <v>0.013252190886181</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06887316722525293</v>
+        <v>0.06801024750147978</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05547177267403784</v>
+        <v>0.05512758367150729</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03110044954843178</v>
+        <v>0.03179116446621039</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02413981952415636</v>
+        <v>0.02649838790682271</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0314811465424337</v>
+        <v>0.03191590886323237</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02139122785235729</v>
+        <v>0.02166062877472063</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01832938623094436</v>
+        <v>0.01668350513861682</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01096416328561405</v>
+        <v>0.01155222678934612</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01143650516948482</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.00272928419805264</v>
+        <v>0.002729284198052641</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00359249908949391</v>
+        <v>0.004143105385961108</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003194514585802609</v>
+        <v>0.003285388666519693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.007490529641541862</v>
+        <v>0.007236339663698533</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01478085098361902</v>
+        <v>0.01504136919746688</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00274369783733035</v>
+        <v>0.002649903056952374</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003684386995815251</v>
+        <v>0.003599718427699998</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.001199011964027469</v>
+        <v>0.001348768671098968</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.009625186688227457</v>
+        <v>0.008997064741886293</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004090919930263293</v>
+        <v>0.004436160697523572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007131512993619452</v>
+        <v>0.007337685455854044</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.001145086861150425</v>
+        <v>0.001100181364902045</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01350923934531329</v>
+        <v>0.01440107476511244</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01351696618763705</v>
+        <v>0.01375064084689899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02108345998090285</v>
+        <v>0.02109722279039951</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.008186554422879397</v>
+        <v>0.008093010948003045</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03807618553912958</v>
+        <v>0.03683795889379358</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01591426613283178</v>
+        <v>0.01640197369747328</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01869381148752301</v>
+        <v>0.01772331455700393</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.008236353681561453</v>
+        <v>0.007174777128011994</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0203722184650772</v>
+        <v>0.01963387889311019</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01216923447081045</v>
+        <v>0.01185418371997226</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.0172303232580883</v>
+        <v>0.01722947780612773</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.00582325747420011</v>
+        <v>0.006178864523663291</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.003437496833316349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.004317911107381112</v>
+        <v>0.004317911107381111</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.03047266405504305</v>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01050629733734499</v>
+        <v>0.01070758420210917</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01721695008086947</v>
+        <v>0.01775412542060305</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.002840918484840009</v>
+        <v>0.002783173967281747</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
@@ -1276,16 +1276,16 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01805819311804067</v>
+        <v>0.01668296416248062</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.002500696916576791</v>
+        <v>0.001813254773039633</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0007452690550421062</v>
+        <v>0.0008400687357580045</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0006249847562118393</v>
+        <v>0.0007036724500376311</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04176076331085019</v>
+        <v>0.04181846471311358</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01031821922087204</v>
+        <v>0.01028540707754816</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01216100495840866</v>
+        <v>0.01073409058988018</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01588540700321483</v>
+        <v>0.01635686791509677</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04888199478089742</v>
+        <v>0.05050180653773553</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01618389909823878</v>
+        <v>0.01498995339828195</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.009368286769441132</v>
+        <v>0.01116515331172305</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.004449683047176528</v>
+        <v>0.004467490458725053</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03968547481197057</v>
+        <v>0.03975654130922147</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01160919840695779</v>
+        <v>0.01056459173637749</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.007500200036405436</v>
+        <v>0.007802071467722523</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.007434836942978852</v>
+        <v>0.007867386722656224</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01715714660462749</v>
+        <v>0.01801300612869718</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01764981138388344</v>
+        <v>0.01747806753829413</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003682443781924672</v>
+        <v>0.003673516511948444</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.0119654286960315</v>
+        <v>0.01176754684782563</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.0189950172775263</v>
+        <v>0.01867640293453853</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01374192590521615</v>
+        <v>0.01340569883214929</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003012899141948081</v>
+        <v>0.003653263365038715</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.008684166526234445</v>
+        <v>0.00954027921478642</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02002652142962315</v>
+        <v>0.02058398164038383</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01630557553870231</v>
+        <v>0.01634485129826001</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.004580973707890322</v>
+        <v>0.005116777609736598</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.01228323349676551</v>
+        <v>0.01239017981777138</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05965256391028801</v>
+        <v>0.05942966428225504</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06761355280356819</v>
+        <v>0.06440362237336313</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03477234985452396</v>
+        <v>0.03337362413559511</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1017236014925554</v>
+        <v>0.1021907400953048</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03643582289256383</v>
+        <v>0.03638560265725385</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03263319536678158</v>
+        <v>0.0309848907220165</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01447498953502862</v>
+        <v>0.01441741562547829</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02288003080012625</v>
+        <v>0.02356034343056049</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03747069241779017</v>
+        <v>0.03698681243348035</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03259329641491436</v>
+        <v>0.03305270956558636</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.01544503533886178</v>
+        <v>0.01602362839519972</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.03429097507208372</v>
+        <v>0.03535205881736355</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02981347255464766</v>
+        <v>0.02909901146210269</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0203762682233546</v>
+        <v>0.02068411486732176</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01846943567414283</v>
+        <v>0.0181208731957282</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0215794075022886</v>
+        <v>0.02154137869652903</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02757271190098153</v>
+        <v>0.02838255293831012</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01669795057860452</v>
+        <v>0.01603389542384231</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.009465103999621251</v>
+        <v>0.009340706608814439</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01419318793497855</v>
+        <v>0.01432671651573477</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03026676958322343</v>
+        <v>0.02998542367461633</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02006732641687834</v>
+        <v>0.01982057016792326</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01501628222910031</v>
+        <v>0.01503704727435314</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01880465103478869</v>
+        <v>0.0187457567683217</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04262131507824984</v>
+        <v>0.04264311884689775</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03288458979112968</v>
+        <v>0.03294919118166939</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02903688534332514</v>
+        <v>0.02903787167682084</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03427527288183911</v>
+        <v>0.03330971306863384</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03940027413157757</v>
+        <v>0.04029893107883439</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02655785353069774</v>
+        <v>0.02690034999444466</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01755818091406541</v>
+        <v>0.01768394041692336</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0211905329140136</v>
+        <v>0.02119333817800654</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03918527074861907</v>
+        <v>0.03902225173723257</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02758171558445685</v>
+        <v>0.02738145022024968</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02164015769127516</v>
+        <v>0.02146681496547401</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0254085958462397</v>
+        <v>0.02583220883217107</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26690</v>
+        <v>27464</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20160</v>
+        <v>20436</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22039</v>
+        <v>20348</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>23157</v>
+        <v>22958</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13395</v>
+        <v>13392</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12193</v>
+        <v>12818</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12301</v>
+        <v>12268</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26473</v>
+        <v>27042</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>44690</v>
+        <v>45228</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>38041</v>
+        <v>36703</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>40342</v>
+        <v>38209</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>54302</v>
+        <v>54966</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51175</v>
+        <v>50470</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41721</v>
+        <v>42769</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>44620</v>
+        <v>44203</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45906</v>
+        <v>45066</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>31821</v>
+        <v>31653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32470</v>
+        <v>32743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31982</v>
+        <v>31577</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>44464</v>
+        <v>43848</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>75002</v>
+        <v>74167</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>66191</v>
+        <v>66528</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>69860</v>
+        <v>69416</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>82366</v>
+        <v>84888</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>31560</v>
+        <v>29881</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>26662</v>
+        <v>26016</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13588</v>
+        <v>13970</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>31050</v>
+        <v>31551</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11772</v>
+        <v>11809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6038</v>
+        <v>6267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2045</v>
+        <v>2168</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6003</v>
+        <v>6052</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>47340</v>
+        <v>46441</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>35135</v>
+        <v>35810</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18250</v>
+        <v>17926</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>40181</v>
+        <v>41677</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56544</v>
+        <v>56974</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>53094</v>
+        <v>51510</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32007</v>
+        <v>33379</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>58273</v>
+        <v>58901</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29177</v>
+        <v>28426</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21913</v>
+        <v>21751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12898</v>
+        <v>13449</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16393</v>
+        <v>16316</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>76263</v>
+        <v>77435</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>64194</v>
+        <v>67545</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>39239</v>
+        <v>39123</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>68490</v>
+        <v>70966</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3744</v>
+        <v>4357</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2027</v>
+        <v>2005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3060</v>
+        <v>2978</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7756</v>
+        <v>7625</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5881</v>
+        <v>5875</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1040</v>
+        <v>1018</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15481</v>
+        <v>15375</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9850</v>
+        <v>8968</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9521</v>
+        <v>9973</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6221</v>
+        <v>6250</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11556</v>
+        <v>11411</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14430</v>
+        <v>14340</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5166</v>
+        <v>5281</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4526</v>
+        <v>4968</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22331</v>
+        <v>22640</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19028</v>
+        <v>19268</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12611</v>
+        <v>11479</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>7227</v>
+        <v>7614</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4437</v>
+        <v>5117</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3699</v>
+        <v>3805</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8604</v>
+        <v>8312</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10558</v>
+        <v>10744</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2103</v>
+        <v>2032</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3030</v>
+        <v>2960</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1033</v>
+        <v>1162</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18764</v>
+        <v>17539</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>7874</v>
+        <v>8538</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14056</v>
+        <v>14463</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>2282</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16686</v>
+        <v>17788</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15653</v>
+        <v>15924</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24219</v>
+        <v>24234</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9266</v>
+        <v>9160</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27197</v>
+        <v>26313</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12201</v>
+        <v>12575</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15372</v>
+        <v>14574</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>7093</v>
+        <v>6179</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>39715</v>
+        <v>38275</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>23422</v>
+        <v>22816</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33961</v>
+        <v>33960</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>11606</v>
+        <v>12315</v>
       </c>
     </row>
     <row r="20">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3683</v>
+        <v>3754</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>9792</v>
+        <v>10098</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2163</v>
+        <v>2119</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
@@ -2618,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16601</v>
+        <v>15337</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3181</v>
+        <v>2307</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1011</v>
+        <v>1140</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>874</v>
+        <v>984</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14639</v>
+        <v>14660</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5268</v>
+        <v>5252</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7534</v>
+        <v>6650</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>9022</v>
+        <v>9290</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27802</v>
+        <v>28723</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>12324</v>
+        <v>11415</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6907</v>
+        <v>8232</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3694</v>
+        <v>3709</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>36483</v>
+        <v>36548</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>14768</v>
+        <v>13439</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>10176</v>
+        <v>10586</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>10395</v>
+        <v>10999</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5100</v>
+        <v>5355</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4710</v>
+        <v>4665</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2839</v>
+        <v>2792</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>23682</v>
+        <v>23284</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>15245</v>
+        <v>14872</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>3256</v>
+        <v>3948</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7332</v>
+        <v>8055</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>30921</v>
+        <v>31782</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>22440</v>
+        <v>22494</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6266</v>
+        <v>6999</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>13284</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17733</v>
+        <v>17667</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>18045</v>
+        <v>17188</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9985</v>
+        <v>9583</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>24132</v>
+        <v>24243</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>45426</v>
+        <v>45363</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>36202</v>
+        <v>34373</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>15644</v>
+        <v>15582</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19317</v>
+        <v>19892</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>57855</v>
+        <v>57108</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>44856</v>
+        <v>45488</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>21127</v>
+        <v>21919</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>37086</v>
+        <v>38234</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>97305</v>
+        <v>94973</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>69706</v>
+        <v>70759</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>62476</v>
+        <v>61297</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>74287</v>
+        <v>74156</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>93088</v>
+        <v>95822</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>59280</v>
+        <v>56922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>33372</v>
+        <v>32933</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>51588</v>
+        <v>52073</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>200968</v>
+        <v>199100</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>139890</v>
+        <v>138170</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>103739</v>
+        <v>103883</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>133083</v>
+        <v>132666</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>139107</v>
+        <v>139178</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>112496</v>
+        <v>112717</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>98222</v>
+        <v>98225</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>117992</v>
+        <v>114668</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>133019</v>
+        <v>136053</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>94284</v>
+        <v>95500</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>61906</v>
+        <v>62350</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>77021</v>
+        <v>77031</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>260185</v>
+        <v>259103</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>192274</v>
+        <v>190878</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>149500</v>
+        <v>148302</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>179820</v>
+        <v>182818</v>
       </c>
     </row>
     <row r="32">
